--- a/plantillas/FORMATO_BL_SIN_FONDO.xlsx
+++ b/plantillas/FORMATO_BL_SIN_FONDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\api-backend-general-v1\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97B85BD-B263-44EA-A47F-9DA8BF470BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F2375F-3182-4C55-8DC2-53267FA306A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{534F485A-6B3F-4F0F-B904-1AAB0C957689}"/>
   </bookViews>
@@ -34,74 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">DASCOM (HOLDINGS) LTD                                                                                      
-RM 1811-1816A NAN FUNG CENTRE,                                                              
-264-298 CASTLE PEAK ROAD,                                                                     
-TSUEN WAN, N.T., HONG KONG.                                                               
-34 LAKIEW COURT VERONA                                                                        
-VA 24482 USA                                                                     </t>
-  </si>
-  <si>
-    <t>155GZH2409015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE FACTORY HKA C.A TAX ID J312171197
-CALLE CALLEJON GUITIERREZ
-EDF.RIVA P.B LOCAL 2/1 LA CALIFORNIA
-NORTE-CARACAS-VENEZUELA
-TEL：+58 (212)237 50 10                                                          </t>
-  </si>
-  <si>
-    <t>THE FACTORY HKA C.A TAX ID J312171197
-CALLE CALLEJON GUITIERREZ
-EDF.RIVA P.B LOCAL 2/1 LA CALIFORNIA
-NORTE-CARACAS-VENEZUELA
-TEL：+58 (212)237 50 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>SHENZHEN, CHINA</t>
-  </si>
-  <si>
-    <t>TOLEDO TRIUM PH/1273-033E</t>
-  </si>
-  <si>
-    <t>YANTIAN, CHINA</t>
-  </si>
-  <si>
-    <t>COLON FREE ZONE, PANAMA</t>
-  </si>
-  <si>
-    <t>LA GUAIRA, VENEZUELA</t>
-  </si>
-  <si>
-    <t>TFV P/NO.1-5</t>
-  </si>
-  <si>
-    <t>5 PALLETS</t>
-  </si>
-  <si>
-    <t>SHIPPER'S LOAD AND COUNT</t>
-  </si>
-  <si>
-    <t>1093,00KGS</t>
-  </si>
-  <si>
-    <t>9.610CBM</t>
-  </si>
-  <si>
-    <t>5 PLYWOOD PALLETS (INCLUDED 141
-CARTONS) PRINTER &amp;CONTROL PANEL
-LABEL</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -278,12 +211,36 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -291,30 +248,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1790,7 +1723,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.2" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1813,132 +1746,124 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="G7" s="2"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="2"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1947,17 +1872,12 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="17" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="38" t="s">
-        <v>5</v>
-      </c>
+      <c r="D17" s="38"/>
       <c r="E17" s="38"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -1980,14 +1900,10 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
@@ -1995,50 +1911,34 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A24" s="15"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="41" t="s">
-        <v>15</v>
-      </c>
+      <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
       <c r="G26" s="16"/>
@@ -2124,41 +2024,30 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="5" t="str">
-        <f>+G24</f>
-        <v>1093,00KGS</v>
-      </c>
-      <c r="H36" s="2" t="str">
-        <f>+H24</f>
-        <v>9.610CBM</v>
-      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="2"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
@@ -2177,40 +2066,40 @@
       <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
@@ -2224,9 +2113,6 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
@@ -2272,12 +2158,12 @@
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
       <c r="D50" s="26"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
@@ -2318,18 +2204,14 @@
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
-      <c r="G56" s="29">
-        <v>45573</v>
-      </c>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="I57" s="30" t="s">
-        <v>4</v>
-      </c>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="I57" s="30"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
@@ -2339,10 +2221,10 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2360,20 +2242,33 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A39:J41"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A22:C23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D26:F33"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:G35"/>
     <mergeCell ref="A11:E15"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="A3:E7"/>
@@ -2381,19 +2276,6 @@
     <mergeCell ref="A8:E10"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A22:C23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D26:F33"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A39:J41"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A59:D59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
